--- a/_GameData/ItemResourceGameData.xlsx
+++ b/_GameData/ItemResourceGameData.xlsx
@@ -1,30 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyeon2-400\Desktop\QTGameData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{63E0433E-811A-4791-A7B2-0B5E96AF2AE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6AD632E4-F3FC-4BC3-AD1E-77B92D63979D}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemResourceGameData" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>Int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,10 +87,6 @@
   </si>
   <si>
     <t>/Resource/Sound/CatWalk</t>
-  </si>
-  <si>
-    <t>뾱뾱슬리퍼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>휘두르기 탄환 트레일</t>
@@ -110,7 +118,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -286,7 +294,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{A7B7FAA7-5C72-4809-A5FE-20648569C1B2}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="firstRowStripe" dxfId="4"/>
@@ -305,14 +313,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표16" displayName="표16" ref="A2:E5" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="A2:E5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{12D8A438-79D1-4102-BA9A-54E7AB3A018B}" name="표16" displayName="표16" ref="A2:E5" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A2:E5" xr:uid="{00000000-0009-0000-0100-000010000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Index"/>
-    <tableColumn id="2" name="#대상 아이템" dataDxfId="1"/>
-    <tableColumn id="5" name="#리소스 유형" dataDxfId="0"/>
-    <tableColumn id="3" name="ResourceType"/>
-    <tableColumn id="4" name="ResourcePath"/>
+    <tableColumn id="1" xr3:uid="{8DB5E32F-466A-4E3B-9744-D097BD9C1787}" name="Index"/>
+    <tableColumn id="2" xr3:uid="{A28A74C7-7313-4E4A-98B0-3E0501869A6C}" name="#대상 아이템" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{C158F037-4B2A-45FD-9CDF-DBE8F42B9046}" name="#리소스 유형" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{391B5520-34CC-4BE7-99F9-E33302B9F17C}" name="ResourceType"/>
+    <tableColumn id="4" xr3:uid="{E201F261-6C44-4276-844D-C433673DD13E}" name="ResourcePath"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -335,7 +343,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -347,7 +355,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -394,6 +402,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -429,6 +454,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -580,7 +622,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D87DBAC8-0D63-439D-A3E8-D9E0A9C8328D}">
   <sheetPr codeName="Sheet11">
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
@@ -654,16 +696,16 @@
         <v>900</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -671,16 +713,16 @@
         <v>901</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>19</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/_GameData/ItemResourceGameData.xlsx
+++ b/_GameData/ItemResourceGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{63E0433E-811A-4791-A7B2-0B5E96AF2AE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E55D9E44-1C43-4D81-A69B-3357B11EAFAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6AD632E4-F3FC-4BC3-AD1E-77B92D63979D}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D0188794-7863-4E76-AA0E-7D82AE797053}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemResourceGameData" sheetId="1" r:id="rId1"/>
@@ -294,7 +294,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{A7B7FAA7-5C72-4809-A5FE-20648569C1B2}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{FAD58E98-5E87-40C1-8EC4-A257FB776235}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="firstRowStripe" dxfId="4"/>
@@ -313,14 +313,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{12D8A438-79D1-4102-BA9A-54E7AB3A018B}" name="표16" displayName="표16" ref="A2:E5" totalsRowShown="0" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C3D0B990-CB78-44D8-A81E-3BD3FF13D3ED}" name="표16" displayName="표16" ref="A2:E5" totalsRowShown="0" headerRowDxfId="2">
   <autoFilter ref="A2:E5" xr:uid="{00000000-0009-0000-0100-000010000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{8DB5E32F-466A-4E3B-9744-D097BD9C1787}" name="Index"/>
-    <tableColumn id="2" xr3:uid="{A28A74C7-7313-4E4A-98B0-3E0501869A6C}" name="#대상 아이템" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{C158F037-4B2A-45FD-9CDF-DBE8F42B9046}" name="#리소스 유형" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{391B5520-34CC-4BE7-99F9-E33302B9F17C}" name="ResourceType"/>
-    <tableColumn id="4" xr3:uid="{E201F261-6C44-4276-844D-C433673DD13E}" name="ResourcePath"/>
+    <tableColumn id="1" xr3:uid="{459C1D56-ACC2-4104-806B-AAC66F217A45}" name="Index"/>
+    <tableColumn id="2" xr3:uid="{3A5069D7-04F7-4520-8C4D-54BBDD145301}" name="#대상 아이템" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{0D34EDC8-6575-4597-BB28-4DB8227BBE92}" name="#리소스 유형" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{DAD52736-7295-4C3D-974F-86056FB3AD1F}" name="ResourceType"/>
+    <tableColumn id="4" xr3:uid="{8B69956C-44AB-485D-9473-CB91C661C50C}" name="ResourcePath"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -622,7 +622,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D87DBAC8-0D63-439D-A3E8-D9E0A9C8328D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{363A4E87-6113-4975-8D88-F83209434561}">
   <sheetPr codeName="Sheet11">
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>

--- a/_GameData/ItemResourceGameData.xlsx
+++ b/_GameData/ItemResourceGameData.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E55D9E44-1C43-4D81-A69B-3357B11EAFAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{72471BB0-447D-490B-A745-1EDE2B4C1AD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D0188794-7863-4E76-AA0E-7D82AE797053}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C8316F25-DB6F-46B7-B7DA-B1619338E7FB}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemResourceGameData" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
   <si>
     <t>Int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,7 +77,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>뾱뾱슬리퍼</t>
+    <t>배트 스프라이트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Resource/Bat/ToyBat</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -86,7 +97,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/Resource/Sound/CatWalk</t>
+    <t>/Resource/Sound/ToyBat_Walk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Resource/Bat/RainbowBat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>휘두르기 탄환 트레일</t>
@@ -98,13 +114,10 @@
   </si>
   <si>
     <t>/Resource/Effect/RainbowTrail</t>
-  </si>
-  <si>
-    <t>트럼펫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격 사운드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>휘두르기 사운드</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -112,7 +125,16 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/Resource/Sound/Trumpet</t>
+    <t>/Resource/Sound/RainbowAtk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Resource/Bat/TrumpetBat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Resource/Bat/Trumpet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -184,7 +206,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -192,6 +214,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
@@ -294,7 +319,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{FAD58E98-5E87-40C1-8EC4-A257FB776235}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{7EC7F309-A73B-4C8E-A1E4-0F70A2E9BC85}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="firstRowStripe" dxfId="4"/>
@@ -312,15 +337,63 @@
 </styleSheet>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="시트별저장버튼"/>
+      <sheetName val="아이템 밸런스 시트"/>
+      <sheetName val="전투 밸런스 시트"/>
+      <sheetName val="공용데이터(참고용)"/>
+      <sheetName val="CharacterGameData"/>
+      <sheetName val="CharacterAtkGameData"/>
+      <sheetName val="ProductialMapGameData"/>
+      <sheetName val="DropGameData"/>
+      <sheetName val="EnemyGameData"/>
+      <sheetName val="EnemyAtkGameData"/>
+      <sheetName val="ShootGameData"/>
+      <sheetName val="ProjectileGameData"/>
+      <sheetName val="ItemGameData"/>
+      <sheetName val="ItemEffectGameData"/>
+      <sheetName val="ItemResourceGameData"/>
+      <sheetName val="LocaleGameData"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C3D0B990-CB78-44D8-A81E-3BD3FF13D3ED}" name="표16" displayName="표16" ref="A2:E5" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="A2:E5" xr:uid="{00000000-0009-0000-0100-000010000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D94DD1AC-4C27-4FB5-A59C-884221C57CB1}" name="표16" displayName="표16" ref="B2:F9" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="B2:F9" xr:uid="{00000000-0009-0000-0100-000010000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{459C1D56-ACC2-4104-806B-AAC66F217A45}" name="Index"/>
-    <tableColumn id="2" xr3:uid="{3A5069D7-04F7-4520-8C4D-54BBDD145301}" name="#대상 아이템" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{0D34EDC8-6575-4597-BB28-4DB8227BBE92}" name="#리소스 유형" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{DAD52736-7295-4C3D-974F-86056FB3AD1F}" name="ResourceType"/>
-    <tableColumn id="4" xr3:uid="{8B69956C-44AB-485D-9473-CB91C661C50C}" name="ResourcePath"/>
+    <tableColumn id="1" xr3:uid="{B261BC48-A40C-4EA9-891C-1BF928548902}" name="Index"/>
+    <tableColumn id="2" xr3:uid="{505A9392-5DE4-4A1A-8918-A33DCD07B829}" name="#대상 아이템" dataDxfId="1">
+      <calculatedColumnFormula>INDEX([1]!ItemEffectTable['#Name],MATCH(표16[[#This Row],[Index]],[1]!ItemEffectTable[ApplyValue],0))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{AC681AEC-DE94-4F88-A917-383ECC21BA83}" name="#리소스 유형" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{F161568C-71FE-4D1D-A174-EA33DC6251A1}" name="ResourceType"/>
+    <tableColumn id="4" xr3:uid="{23ED7A28-5D3F-49C8-8F8F-6A7091C6FD40}" name="ResourcePath"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -622,107 +695,182 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{363A4E87-6113-4975-8D88-F83209434561}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7050AFDE-4CA3-4DE3-B678-375B2DF81332}">
   <sheetPr codeName="Sheet11">
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="B1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.375" customWidth="1"/>
-    <col min="4" max="4" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.25" customWidth="1"/>
+    <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.375" customWidth="1"/>
+    <col min="5" max="5" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
+    <row r="1" spans="2:6">
+      <c r="B1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
+    <row r="2" spans="2:6">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3">
+    <row r="3" spans="2:6">
+      <c r="B3">
         <v>900</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="str">
+        <f>INDEX([1]!ItemEffectTable['#Name],MATCH(표16[[#This Row],[Index]],[1]!ItemEffectTable[ApplyValue],0))</f>
+        <v>장난감 배트</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="E3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" t="s">
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4">
+        <v>900</v>
+      </c>
+      <c r="C4" s="3" t="str">
+        <f>INDEX([1]!ItemEffectTable['#Name],MATCH(표16[[#This Row],[Index]],[1]!ItemEffectTable[ApplyValue],0))</f>
+        <v>장난감 배트</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4">
-        <v>900</v>
-      </c>
-      <c r="B4" s="3" t="s">
+    <row r="5" spans="2:6">
+      <c r="B5">
+        <v>901</v>
+      </c>
+      <c r="C5" s="3" t="str">
+        <f>INDEX([1]!ItemEffectTable['#Name],MATCH(표16[[#This Row],[Index]],[1]!ItemEffectTable[ApplyValue],0))</f>
+        <v>무지개빛 총공격</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5">
+    <row r="6" spans="2:6">
+      <c r="B6">
         <v>901</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C6" s="3" t="str">
+        <f>INDEX([1]!ItemEffectTable['#Name],MATCH(표16[[#This Row],[Index]],[1]!ItemEffectTable[ApplyValue],0))</f>
+        <v>무지개빛 총공격</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="E6" t="s">
         <v>17</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F6" t="s">
         <v>18</v>
       </c>
-      <c r="E5" t="s">
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7">
+        <v>901</v>
+      </c>
+      <c r="C7" s="3" t="str">
+        <f>INDEX([1]!ItemEffectTable['#Name],MATCH(표16[[#This Row],[Index]],[1]!ItemEffectTable[ApplyValue],0))</f>
+        <v>무지개빛 총공격</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>19</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8">
+        <v>902</v>
+      </c>
+      <c r="C8" s="3" t="str">
+        <f>INDEX([1]!ItemEffectTable['#Name],MATCH(표16[[#This Row],[Index]],[1]!ItemEffectTable[ApplyValue],0))</f>
+        <v>트럼펫</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9">
+        <v>902</v>
+      </c>
+      <c r="C9" s="3" t="str">
+        <f>INDEX([1]!ItemEffectTable['#Name],MATCH(표16[[#This Row],[Index]],[1]!ItemEffectTable[ApplyValue],0))</f>
+        <v>트럼펫</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/_GameData/ItemResourceGameData.xlsx
+++ b/_GameData/ItemResourceGameData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{72471BB0-447D-490B-A745-1EDE2B4C1AD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C51E63AF-01EB-48E9-813D-0251E6F2596B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C8316F25-DB6F-46B7-B7DA-B1619338E7FB}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{22EEDA44-1CC2-416F-AEC8-AA76A410159E}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemResourceGameData" sheetId="1" r:id="rId1"/>
@@ -319,7 +319,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{7EC7F309-A73B-4C8E-A1E4-0F70A2E9BC85}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{13BF4DA8-5C98-4093-AE9F-B72F3DB35EC3}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="firstRowStripe" dxfId="4"/>
@@ -384,16 +384,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D94DD1AC-4C27-4FB5-A59C-884221C57CB1}" name="표16" displayName="표16" ref="B2:F9" totalsRowShown="0" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{29696AAE-50C8-4179-84D4-E058E67C9C64}" name="ItemResourceTable" displayName="ItemResourceTable" ref="B2:F9" totalsRowShown="0" headerRowDxfId="2">
   <autoFilter ref="B2:F9" xr:uid="{00000000-0009-0000-0100-000010000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{B261BC48-A40C-4EA9-891C-1BF928548902}" name="Index"/>
-    <tableColumn id="2" xr3:uid="{505A9392-5DE4-4A1A-8918-A33DCD07B829}" name="#대상 아이템" dataDxfId="1">
-      <calculatedColumnFormula>INDEX([1]!ItemEffectTable['#Name],MATCH(표16[[#This Row],[Index]],[1]!ItemEffectTable[ApplyValue],0))</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{9273FDCE-9C07-4E79-871A-7C272D649951}" name="Index"/>
+    <tableColumn id="2" xr3:uid="{E1E34C9F-C1E3-4326-A293-6E5A387B2A87}" name="#대상 아이템" dataDxfId="1">
+      <calculatedColumnFormula>INDEX([1]!ItemEffectTable['#Name],MATCH(ItemResourceTable[[#This Row],[Index]],[1]!ItemEffectTable[ApplyValue],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{AC681AEC-DE94-4F88-A917-383ECC21BA83}" name="#리소스 유형" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{F161568C-71FE-4D1D-A174-EA33DC6251A1}" name="ResourceType"/>
-    <tableColumn id="4" xr3:uid="{23ED7A28-5D3F-49C8-8F8F-6A7091C6FD40}" name="ResourcePath"/>
+    <tableColumn id="5" xr3:uid="{DB487AA4-DE4D-4C6C-B6F8-F2F04D3F60E7}" name="#리소스 유형" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{34381E22-ADD7-4172-897C-9756BC182304}" name="ResourceType"/>
+    <tableColumn id="4" xr3:uid="{A2225CFB-A5D0-4DEC-AF69-BCD85C00FB4B}" name="ResourcePath"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -695,14 +695,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7050AFDE-4CA3-4DE3-B678-375B2DF81332}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39580D9C-CFC9-4A5E-B4E9-A8F73742F264}">
   <sheetPr codeName="Sheet11">
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="B1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -752,7 +752,7 @@
         <v>900</v>
       </c>
       <c r="C3" s="3" t="str">
-        <f>INDEX([1]!ItemEffectTable['#Name],MATCH(표16[[#This Row],[Index]],[1]!ItemEffectTable[ApplyValue],0))</f>
+        <f>INDEX([1]!ItemEffectTable['#Name],MATCH(ItemResourceTable[[#This Row],[Index]],[1]!ItemEffectTable[ApplyValue],0))</f>
         <v>장난감 배트</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -770,7 +770,7 @@
         <v>900</v>
       </c>
       <c r="C4" s="3" t="str">
-        <f>INDEX([1]!ItemEffectTable['#Name],MATCH(표16[[#This Row],[Index]],[1]!ItemEffectTable[ApplyValue],0))</f>
+        <f>INDEX([1]!ItemEffectTable['#Name],MATCH(ItemResourceTable[[#This Row],[Index]],[1]!ItemEffectTable[ApplyValue],0))</f>
         <v>장난감 배트</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -788,7 +788,7 @@
         <v>901</v>
       </c>
       <c r="C5" s="3" t="str">
-        <f>INDEX([1]!ItemEffectTable['#Name],MATCH(표16[[#This Row],[Index]],[1]!ItemEffectTable[ApplyValue],0))</f>
+        <f>INDEX([1]!ItemEffectTable['#Name],MATCH(ItemResourceTable[[#This Row],[Index]],[1]!ItemEffectTable[ApplyValue],0))</f>
         <v>무지개빛 총공격</v>
       </c>
       <c r="D5" s="4" t="s">
@@ -806,7 +806,7 @@
         <v>901</v>
       </c>
       <c r="C6" s="3" t="str">
-        <f>INDEX([1]!ItemEffectTable['#Name],MATCH(표16[[#This Row],[Index]],[1]!ItemEffectTable[ApplyValue],0))</f>
+        <f>INDEX([1]!ItemEffectTable['#Name],MATCH(ItemResourceTable[[#This Row],[Index]],[1]!ItemEffectTable[ApplyValue],0))</f>
         <v>무지개빛 총공격</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -824,7 +824,7 @@
         <v>901</v>
       </c>
       <c r="C7" s="3" t="str">
-        <f>INDEX([1]!ItemEffectTable['#Name],MATCH(표16[[#This Row],[Index]],[1]!ItemEffectTable[ApplyValue],0))</f>
+        <f>INDEX([1]!ItemEffectTable['#Name],MATCH(ItemResourceTable[[#This Row],[Index]],[1]!ItemEffectTable[ApplyValue],0))</f>
         <v>무지개빛 총공격</v>
       </c>
       <c r="D7" s="4" t="s">
@@ -842,7 +842,7 @@
         <v>902</v>
       </c>
       <c r="C8" s="3" t="str">
-        <f>INDEX([1]!ItemEffectTable['#Name],MATCH(표16[[#This Row],[Index]],[1]!ItemEffectTable[ApplyValue],0))</f>
+        <f>INDEX([1]!ItemEffectTable['#Name],MATCH(ItemResourceTable[[#This Row],[Index]],[1]!ItemEffectTable[ApplyValue],0))</f>
         <v>트럼펫</v>
       </c>
       <c r="D8" s="4" t="s">
@@ -860,7 +860,7 @@
         <v>902</v>
       </c>
       <c r="C9" s="3" t="str">
-        <f>INDEX([1]!ItemEffectTable['#Name],MATCH(표16[[#This Row],[Index]],[1]!ItemEffectTable[ApplyValue],0))</f>
+        <f>INDEX([1]!ItemEffectTable['#Name],MATCH(ItemResourceTable[[#This Row],[Index]],[1]!ItemEffectTable[ApplyValue],0))</f>
         <v>트럼펫</v>
       </c>
       <c r="D9" s="4" t="s">

--- a/_GameData/ItemResourceGameData.xlsx
+++ b/_GameData/ItemResourceGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C51E63AF-01EB-48E9-813D-0251E6F2596B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE84B306-4E77-43EF-B244-5B0209A8614B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{22EEDA44-1CC2-416F-AEC8-AA76A410159E}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4B64F2E1-C9B4-46C7-AAE5-10BB56A7229F}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemResourceGameData" sheetId="1" r:id="rId1"/>
@@ -319,7 +319,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{13BF4DA8-5C98-4093-AE9F-B72F3DB35EC3}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{316264D2-B7CC-4D82-AB2D-41AE2204B7C8}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="firstRowStripe" dxfId="4"/>
@@ -384,16 +384,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{29696AAE-50C8-4179-84D4-E058E67C9C64}" name="ItemResourceTable" displayName="ItemResourceTable" ref="B2:F9" totalsRowShown="0" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{85D4BF2A-0F62-4209-978F-B2AA41E62A72}" name="ItemResourceTable" displayName="ItemResourceTable" ref="B2:F9" totalsRowShown="0" headerRowDxfId="2">
   <autoFilter ref="B2:F9" xr:uid="{00000000-0009-0000-0100-000010000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{9273FDCE-9C07-4E79-871A-7C272D649951}" name="Index"/>
-    <tableColumn id="2" xr3:uid="{E1E34C9F-C1E3-4326-A293-6E5A387B2A87}" name="#대상 아이템" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{63ADDB32-6458-42EE-A500-42614AD6616A}" name="Index"/>
+    <tableColumn id="2" xr3:uid="{5E171D01-DA67-4670-8D8B-E85A6A34B1EA}" name="#대상 아이템" dataDxfId="1">
       <calculatedColumnFormula>INDEX([1]!ItemEffectTable['#Name],MATCH(ItemResourceTable[[#This Row],[Index]],[1]!ItemEffectTable[ApplyValue],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{DB487AA4-DE4D-4C6C-B6F8-F2F04D3F60E7}" name="#리소스 유형" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{34381E22-ADD7-4172-897C-9756BC182304}" name="ResourceType"/>
-    <tableColumn id="4" xr3:uid="{A2225CFB-A5D0-4DEC-AF69-BCD85C00FB4B}" name="ResourcePath"/>
+    <tableColumn id="5" xr3:uid="{1C692CB4-1684-4D87-8A19-F94BA6D85DDD}" name="#리소스 유형" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{08304F0B-A35C-4B78-930C-09EA71E5FD2C}" name="ResourceType"/>
+    <tableColumn id="4" xr3:uid="{2D1B21E2-8C43-490F-9C55-3F1B60DD343C}" name="ResourcePath"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -695,7 +695,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39580D9C-CFC9-4A5E-B4E9-A8F73742F264}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7921DCA-DC29-4093-8081-705E50E27C34}">
   <sheetPr codeName="Sheet11">
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>

--- a/_GameData/ItemResourceGameData.xlsx
+++ b/_GameData/ItemResourceGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE84B306-4E77-43EF-B244-5B0209A8614B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C154A1AA-2C46-4631-9C93-E077A817BB81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4B64F2E1-C9B4-46C7-AAE5-10BB56A7229F}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A8CDF21E-BE24-4957-B58E-FFED01EEDD12}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemResourceGameData" sheetId="1" r:id="rId1"/>
@@ -319,7 +319,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{316264D2-B7CC-4D82-AB2D-41AE2204B7C8}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{46790D7B-BB3A-45BA-AB09-2BA53F28D325}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="firstRowStripe" dxfId="4"/>
@@ -384,16 +384,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{85D4BF2A-0F62-4209-978F-B2AA41E62A72}" name="ItemResourceTable" displayName="ItemResourceTable" ref="B2:F9" totalsRowShown="0" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{69D22EAD-C0C0-40AD-B16F-4F1F6F876E27}" name="ItemResourceTable" displayName="ItemResourceTable" ref="B2:F9" totalsRowShown="0" headerRowDxfId="2">
   <autoFilter ref="B2:F9" xr:uid="{00000000-0009-0000-0100-000010000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{63ADDB32-6458-42EE-A500-42614AD6616A}" name="Index"/>
-    <tableColumn id="2" xr3:uid="{5E171D01-DA67-4670-8D8B-E85A6A34B1EA}" name="#대상 아이템" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{87C1B2C9-3972-43BC-A1A8-F6520E44502D}" name="Index"/>
+    <tableColumn id="2" xr3:uid="{0802F7E6-D6C6-4507-AAAA-6DEDA552FE6B}" name="#대상 아이템" dataDxfId="1">
       <calculatedColumnFormula>INDEX([1]!ItemEffectTable['#Name],MATCH(ItemResourceTable[[#This Row],[Index]],[1]!ItemEffectTable[ApplyValue],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{1C692CB4-1684-4D87-8A19-F94BA6D85DDD}" name="#리소스 유형" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{08304F0B-A35C-4B78-930C-09EA71E5FD2C}" name="ResourceType"/>
-    <tableColumn id="4" xr3:uid="{2D1B21E2-8C43-490F-9C55-3F1B60DD343C}" name="ResourcePath"/>
+    <tableColumn id="5" xr3:uid="{7D45303A-5791-45EC-9D65-BDD86064868F}" name="#리소스 유형" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{CB91D368-31F9-48C4-AD21-574439BD16DD}" name="ResourceType"/>
+    <tableColumn id="4" xr3:uid="{0CB70130-0A97-44CA-8A7E-514056A3C39D}" name="ResourcePath"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -695,7 +695,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7921DCA-DC29-4093-8081-705E50E27C34}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5040E671-D729-4ECD-9751-2AF22FCAA510}">
   <sheetPr codeName="Sheet11">
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>

--- a/_GameData/ItemResourceGameData.xlsx
+++ b/_GameData/ItemResourceGameData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C154A1AA-2C46-4631-9C93-E077A817BB81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{71B79BFB-C2D1-464A-A1F1-D15C2E3416C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A8CDF21E-BE24-4957-B58E-FFED01EEDD12}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{92E05A7A-2217-48E1-8557-76DC7C03CA6A}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemResourceGameData" sheetId="1" r:id="rId1"/>
@@ -319,7 +319,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{46790D7B-BB3A-45BA-AB09-2BA53F28D325}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{9E53B9E3-14B8-4535-AB00-2DC5B07B7B17}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="firstRowStripe" dxfId="4"/>
@@ -384,16 +384,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{69D22EAD-C0C0-40AD-B16F-4F1F6F876E27}" name="ItemResourceTable" displayName="ItemResourceTable" ref="B2:F9" totalsRowShown="0" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FDBE6B03-7799-4170-A414-D2C689FF622B}" name="ItemResourceTable" displayName="ItemResourceTable" ref="B2:F9" totalsRowShown="0" headerRowDxfId="2">
   <autoFilter ref="B2:F9" xr:uid="{00000000-0009-0000-0100-000010000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{87C1B2C9-3972-43BC-A1A8-F6520E44502D}" name="Index"/>
-    <tableColumn id="2" xr3:uid="{0802F7E6-D6C6-4507-AAAA-6DEDA552FE6B}" name="#대상 아이템" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{9C87B076-5BC1-46F5-AB6E-67E73B4AD738}" name="Index"/>
+    <tableColumn id="2" xr3:uid="{60A4E657-3F3B-42B4-BD7A-F101B78E90A1}" name="#대상 아이템" dataDxfId="1">
       <calculatedColumnFormula>INDEX([1]!ItemEffectTable['#Name],MATCH(ItemResourceTable[[#This Row],[Index]],[1]!ItemEffectTable[ApplyValue],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{7D45303A-5791-45EC-9D65-BDD86064868F}" name="#리소스 유형" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{CB91D368-31F9-48C4-AD21-574439BD16DD}" name="ResourceType"/>
-    <tableColumn id="4" xr3:uid="{0CB70130-0A97-44CA-8A7E-514056A3C39D}" name="ResourcePath"/>
+    <tableColumn id="5" xr3:uid="{FFF4F102-3A1F-430B-95B1-F9386A523C01}" name="#리소스 유형" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{9ACA0B26-75B0-422F-99C0-0E3A822B377D}" name="ResourceType"/>
+    <tableColumn id="4" xr3:uid="{D17E9CB9-C86D-4603-9996-111E19BC557F}" name="ResourcePath"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -695,7 +695,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5040E671-D729-4ECD-9751-2AF22FCAA510}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF93D5E2-9897-4E70-9B19-D85F41C6C5F4}">
   <sheetPr codeName="Sheet11">
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>

--- a/_GameData/ItemResourceGameData.xlsx
+++ b/_GameData/ItemResourceGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{71B79BFB-C2D1-464A-A1F1-D15C2E3416C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D38BDA4-0A97-4959-B8F0-0268DBF03F4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{92E05A7A-2217-48E1-8557-76DC7C03CA6A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DFFAA350-7745-4DD9-BAFC-C405C3FEF3F9}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemResourceGameData" sheetId="1" r:id="rId1"/>
@@ -319,7 +319,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{9E53B9E3-14B8-4535-AB00-2DC5B07B7B17}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{D39F2600-24A7-45A8-AB81-97EF09649CE1}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="firstRowStripe" dxfId="4"/>
@@ -384,16 +384,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FDBE6B03-7799-4170-A414-D2C689FF622B}" name="ItemResourceTable" displayName="ItemResourceTable" ref="B2:F9" totalsRowShown="0" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6577D95E-58BC-4F7F-8A10-8D0FDF4196AD}" name="ItemResourceTable" displayName="ItemResourceTable" ref="B2:F9" totalsRowShown="0" headerRowDxfId="2">
   <autoFilter ref="B2:F9" xr:uid="{00000000-0009-0000-0100-000010000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{9C87B076-5BC1-46F5-AB6E-67E73B4AD738}" name="Index"/>
-    <tableColumn id="2" xr3:uid="{60A4E657-3F3B-42B4-BD7A-F101B78E90A1}" name="#대상 아이템" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{33793314-062C-4E04-A743-95DD7354828B}" name="Index"/>
+    <tableColumn id="2" xr3:uid="{1AB49A3D-38DC-4F66-A9C1-255E89BD735F}" name="#대상 아이템" dataDxfId="1">
       <calculatedColumnFormula>INDEX([1]!ItemEffectTable['#Name],MATCH(ItemResourceTable[[#This Row],[Index]],[1]!ItemEffectTable[ApplyValue],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{FFF4F102-3A1F-430B-95B1-F9386A523C01}" name="#리소스 유형" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{9ACA0B26-75B0-422F-99C0-0E3A822B377D}" name="ResourceType"/>
-    <tableColumn id="4" xr3:uid="{D17E9CB9-C86D-4603-9996-111E19BC557F}" name="ResourcePath"/>
+    <tableColumn id="5" xr3:uid="{2C1C6983-405D-4E4D-8A82-744DB551DF7E}" name="#리소스 유형" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{599A52BC-28F4-4233-A15D-9E4B353B6564}" name="ResourceType"/>
+    <tableColumn id="4" xr3:uid="{4E53D927-48E8-493B-AA7C-B30F464ECF94}" name="ResourcePath"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -695,7 +695,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF93D5E2-9897-4E70-9B19-D85F41C6C5F4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C9242E3-5F25-4338-AD01-9BA2477B90A0}">
   <sheetPr codeName="Sheet11">
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>

--- a/_GameData/ItemResourceGameData.xlsx
+++ b/_GameData/ItemResourceGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D38BDA4-0A97-4959-B8F0-0268DBF03F4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A8AFF1DA-4CB4-456F-AD2C-BBA58A03499D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DFFAA350-7745-4DD9-BAFC-C405C3FEF3F9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2400CD01-CB58-49AD-8576-BE45D48B5F66}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemResourceGameData" sheetId="1" r:id="rId1"/>
@@ -319,7 +319,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{D39F2600-24A7-45A8-AB81-97EF09649CE1}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{1FB6A0FF-5340-4A70-BD9F-11014653B3E6}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="firstRowStripe" dxfId="4"/>
@@ -384,16 +384,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6577D95E-58BC-4F7F-8A10-8D0FDF4196AD}" name="ItemResourceTable" displayName="ItemResourceTable" ref="B2:F9" totalsRowShown="0" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E343E8C2-824F-4EB7-AC53-006278048463}" name="ItemResourceTable" displayName="ItemResourceTable" ref="B2:F9" totalsRowShown="0" headerRowDxfId="2">
   <autoFilter ref="B2:F9" xr:uid="{00000000-0009-0000-0100-000010000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{33793314-062C-4E04-A743-95DD7354828B}" name="Index"/>
-    <tableColumn id="2" xr3:uid="{1AB49A3D-38DC-4F66-A9C1-255E89BD735F}" name="#대상 아이템" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{504C82D6-5633-4587-AE03-87D1631ECB66}" name="Index"/>
+    <tableColumn id="2" xr3:uid="{D858B65A-5989-4651-8357-ED715E0BB27E}" name="#대상 아이템" dataDxfId="1">
       <calculatedColumnFormula>INDEX([1]!ItemEffectTable['#Name],MATCH(ItemResourceTable[[#This Row],[Index]],[1]!ItemEffectTable[ApplyValue],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{2C1C6983-405D-4E4D-8A82-744DB551DF7E}" name="#리소스 유형" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{599A52BC-28F4-4233-A15D-9E4B353B6564}" name="ResourceType"/>
-    <tableColumn id="4" xr3:uid="{4E53D927-48E8-493B-AA7C-B30F464ECF94}" name="ResourcePath"/>
+    <tableColumn id="5" xr3:uid="{92398D50-68A1-4D02-A6F5-BBD99C735E1D}" name="#리소스 유형" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{0A9F1508-BE0A-44DF-9C9B-DD56C07FFB12}" name="ResourceType"/>
+    <tableColumn id="4" xr3:uid="{D54646B3-704F-49C3-98C8-CD2C22C3E9C7}" name="ResourcePath"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -695,7 +695,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C9242E3-5F25-4338-AD01-9BA2477B90A0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3790C1A-1749-4096-92F9-DEFBBBE49554}">
   <sheetPr codeName="Sheet11">
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>

--- a/_GameData/ItemResourceGameData.xlsx
+++ b/_GameData/ItemResourceGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A8AFF1DA-4CB4-456F-AD2C-BBA58A03499D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4263572C-73A5-4344-8207-7B344226A17C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2400CD01-CB58-49AD-8576-BE45D48B5F66}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E7A6FC9E-8053-4D6C-AFB4-E2544D0F0365}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemResourceGameData" sheetId="1" r:id="rId1"/>
@@ -319,7 +319,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{1FB6A0FF-5340-4A70-BD9F-11014653B3E6}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{DCAD3A89-5DAF-4778-AB0C-85ECF1A3B436}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="firstRowStripe" dxfId="4"/>
@@ -384,16 +384,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E343E8C2-824F-4EB7-AC53-006278048463}" name="ItemResourceTable" displayName="ItemResourceTable" ref="B2:F9" totalsRowShown="0" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6B8E05B9-D606-4DA5-9ABC-53AA2D47BBA5}" name="ItemResourceTable" displayName="ItemResourceTable" ref="B2:F9" totalsRowShown="0" headerRowDxfId="2">
   <autoFilter ref="B2:F9" xr:uid="{00000000-0009-0000-0100-000010000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{504C82D6-5633-4587-AE03-87D1631ECB66}" name="Index"/>
-    <tableColumn id="2" xr3:uid="{D858B65A-5989-4651-8357-ED715E0BB27E}" name="#대상 아이템" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{E42E8201-DAC6-4437-A570-C5D5FC99407F}" name="Index"/>
+    <tableColumn id="2" xr3:uid="{54435A73-AB8F-44F0-B8CF-6E2113DF6328}" name="#대상 아이템" dataDxfId="1">
       <calculatedColumnFormula>INDEX([1]!ItemEffectTable['#Name],MATCH(ItemResourceTable[[#This Row],[Index]],[1]!ItemEffectTable[ApplyValue],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{92398D50-68A1-4D02-A6F5-BBD99C735E1D}" name="#리소스 유형" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{0A9F1508-BE0A-44DF-9C9B-DD56C07FFB12}" name="ResourceType"/>
-    <tableColumn id="4" xr3:uid="{D54646B3-704F-49C3-98C8-CD2C22C3E9C7}" name="ResourcePath"/>
+    <tableColumn id="5" xr3:uid="{022784C6-C8A3-4BAF-BE7C-19C4776A777A}" name="#리소스 유형" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{7DEECF93-838D-4B0E-B3C0-3DEB38C74EB3}" name="ResourceType"/>
+    <tableColumn id="4" xr3:uid="{EC9B8802-EEBF-4690-9A98-2898447BB924}" name="ResourcePath"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -695,7 +695,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3790C1A-1749-4096-92F9-DEFBBBE49554}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC8ECEE1-4D4B-42D6-80C2-C3BF636682A7}">
   <sheetPr codeName="Sheet11">
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>

--- a/_GameData/ItemResourceGameData.xlsx
+++ b/_GameData/ItemResourceGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4263572C-73A5-4344-8207-7B344226A17C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B2F3A7C-05C8-4A4F-A1F5-B2646AF9D17B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E7A6FC9E-8053-4D6C-AFB4-E2544D0F0365}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8CFDED9D-BB32-42DB-9998-1F5A4A86C024}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemResourceGameData" sheetId="1" r:id="rId1"/>
@@ -319,7 +319,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{DCAD3A89-5DAF-4778-AB0C-85ECF1A3B436}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{80F14A2B-9C99-4651-A99F-199B25BF6B60}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="firstRowStripe" dxfId="4"/>
@@ -384,16 +384,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6B8E05B9-D606-4DA5-9ABC-53AA2D47BBA5}" name="ItemResourceTable" displayName="ItemResourceTable" ref="B2:F9" totalsRowShown="0" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DF062B84-8A32-4311-9736-283CE8C25688}" name="ItemResourceTable" displayName="ItemResourceTable" ref="B2:F9" totalsRowShown="0" headerRowDxfId="2">
   <autoFilter ref="B2:F9" xr:uid="{00000000-0009-0000-0100-000010000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{E42E8201-DAC6-4437-A570-C5D5FC99407F}" name="Index"/>
-    <tableColumn id="2" xr3:uid="{54435A73-AB8F-44F0-B8CF-6E2113DF6328}" name="#대상 아이템" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{64EEF2CC-E37A-4905-B029-463FD8A9F0DC}" name="Index"/>
+    <tableColumn id="2" xr3:uid="{811E7A26-CBED-4403-9930-ECA564C18F82}" name="#대상 아이템" dataDxfId="1">
       <calculatedColumnFormula>INDEX([1]!ItemEffectTable['#Name],MATCH(ItemResourceTable[[#This Row],[Index]],[1]!ItemEffectTable[ApplyValue],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{022784C6-C8A3-4BAF-BE7C-19C4776A777A}" name="#리소스 유형" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{7DEECF93-838D-4B0E-B3C0-3DEB38C74EB3}" name="ResourceType"/>
-    <tableColumn id="4" xr3:uid="{EC9B8802-EEBF-4690-9A98-2898447BB924}" name="ResourcePath"/>
+    <tableColumn id="5" xr3:uid="{7137A0AA-107F-4CDD-A622-252937ED3CD9}" name="#리소스 유형" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{23BDC407-BCAC-47A2-A436-E350C487DCCC}" name="ResourceType"/>
+    <tableColumn id="4" xr3:uid="{B0CBB22A-3B6C-477D-96C3-48CD547C3077}" name="ResourcePath"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -695,7 +695,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC8ECEE1-4D4B-42D6-80C2-C3BF636682A7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E566A6B-E2BB-4978-A9A0-5AF15EC87FF6}">
   <sheetPr codeName="Sheet11">
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>

--- a/_GameData/ItemResourceGameData.xlsx
+++ b/_GameData/ItemResourceGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B2F3A7C-05C8-4A4F-A1F5-B2646AF9D17B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{37AAF44C-3943-4205-A98B-605C9A48865A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8CFDED9D-BB32-42DB-9998-1F5A4A86C024}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8AE94387-D59A-4CE7-A2C5-171166C9C8DF}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemResourceGameData" sheetId="1" r:id="rId1"/>
@@ -319,7 +319,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{80F14A2B-9C99-4651-A99F-199B25BF6B60}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{D592F477-76A4-4219-BD7D-71E12C24C009}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="firstRowStripe" dxfId="4"/>
@@ -384,16 +384,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DF062B84-8A32-4311-9736-283CE8C25688}" name="ItemResourceTable" displayName="ItemResourceTable" ref="B2:F9" totalsRowShown="0" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{46CB944F-D23C-4017-A3C1-E8BEA31DB1B6}" name="ItemResourceTable" displayName="ItemResourceTable" ref="B2:F9" totalsRowShown="0" headerRowDxfId="2">
   <autoFilter ref="B2:F9" xr:uid="{00000000-0009-0000-0100-000010000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{64EEF2CC-E37A-4905-B029-463FD8A9F0DC}" name="Index"/>
-    <tableColumn id="2" xr3:uid="{811E7A26-CBED-4403-9930-ECA564C18F82}" name="#대상 아이템" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00FC1226-0324-40D7-B7B6-D524C55AC83B}" name="Index"/>
+    <tableColumn id="2" xr3:uid="{0B9DE383-9AB9-48BC-9628-6140F42BAB5D}" name="#대상 아이템" dataDxfId="1">
       <calculatedColumnFormula>INDEX([1]!ItemEffectTable['#Name],MATCH(ItemResourceTable[[#This Row],[Index]],[1]!ItemEffectTable[ApplyValue],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{7137A0AA-107F-4CDD-A622-252937ED3CD9}" name="#리소스 유형" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{23BDC407-BCAC-47A2-A436-E350C487DCCC}" name="ResourceType"/>
-    <tableColumn id="4" xr3:uid="{B0CBB22A-3B6C-477D-96C3-48CD547C3077}" name="ResourcePath"/>
+    <tableColumn id="5" xr3:uid="{B8C016EC-BC33-4ABC-8389-47F2F5EBC9A1}" name="#리소스 유형" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{C0E226F0-5DC4-4F2F-AEDD-B9BCEB76D475}" name="ResourceType"/>
+    <tableColumn id="4" xr3:uid="{59ED1DFE-77A0-4E12-899D-E4B8F9F23032}" name="ResourcePath"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -695,7 +695,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E566A6B-E2BB-4978-A9A0-5AF15EC87FF6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75C6B631-DBA9-46A2-9AB7-4C2CD302B76E}">
   <sheetPr codeName="Sheet11">
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>

--- a/_GameData/ItemResourceGameData.xlsx
+++ b/_GameData/ItemResourceGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{37AAF44C-3943-4205-A98B-605C9A48865A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4B42A7C-2F93-4D90-80E0-C2F81BF08403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8AE94387-D59A-4CE7-A2C5-171166C9C8DF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3E4D50E5-D6F0-4310-A3DA-6385665645B8}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemResourceGameData" sheetId="1" r:id="rId1"/>
@@ -319,7 +319,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{D592F477-76A4-4219-BD7D-71E12C24C009}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{ADFBCBA2-19B0-4D9D-9FBE-8DDDAEB8F0D4}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="firstRowStripe" dxfId="4"/>
@@ -384,16 +384,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{46CB944F-D23C-4017-A3C1-E8BEA31DB1B6}" name="ItemResourceTable" displayName="ItemResourceTable" ref="B2:F9" totalsRowShown="0" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A5BCBF96-39E5-4110-9B9F-C2A8D470FDA2}" name="ItemResourceTable" displayName="ItemResourceTable" ref="B2:F9" totalsRowShown="0" headerRowDxfId="2">
   <autoFilter ref="B2:F9" xr:uid="{00000000-0009-0000-0100-000010000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00FC1226-0324-40D7-B7B6-D524C55AC83B}" name="Index"/>
-    <tableColumn id="2" xr3:uid="{0B9DE383-9AB9-48BC-9628-6140F42BAB5D}" name="#대상 아이템" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{7279D158-E012-4704-A4B1-16A920FB5A1C}" name="Index"/>
+    <tableColumn id="2" xr3:uid="{DE38B8D4-D79E-4837-A34A-B58C057757DA}" name="#대상 아이템" dataDxfId="1">
       <calculatedColumnFormula>INDEX([1]!ItemEffectTable['#Name],MATCH(ItemResourceTable[[#This Row],[Index]],[1]!ItemEffectTable[ApplyValue],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{B8C016EC-BC33-4ABC-8389-47F2F5EBC9A1}" name="#리소스 유형" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{C0E226F0-5DC4-4F2F-AEDD-B9BCEB76D475}" name="ResourceType"/>
-    <tableColumn id="4" xr3:uid="{59ED1DFE-77A0-4E12-899D-E4B8F9F23032}" name="ResourcePath"/>
+    <tableColumn id="5" xr3:uid="{626E4E77-2BB8-44D9-A4C0-F1EB552E9FDB}" name="#리소스 유형" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{BEE42738-0D63-4001-8906-08A875B01997}" name="ResourceType"/>
+    <tableColumn id="4" xr3:uid="{4678651A-6D21-4E6F-8FC4-12C9338C7BF6}" name="ResourcePath"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -695,7 +695,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75C6B631-DBA9-46A2-9AB7-4C2CD302B76E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6457372-1EA5-4102-AFA0-87E67C9A9720}">
   <sheetPr codeName="Sheet11">
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>

--- a/_GameData/ItemResourceGameData.xlsx
+++ b/_GameData/ItemResourceGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4B42A7C-2F93-4D90-80E0-C2F81BF08403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8CFA3112-3612-4444-B6B7-FDD72B6E985B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3E4D50E5-D6F0-4310-A3DA-6385665645B8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{316FCDB0-7C59-43E5-A713-AC87D0939ABC}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemResourceGameData" sheetId="1" r:id="rId1"/>
@@ -319,7 +319,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{ADFBCBA2-19B0-4D9D-9FBE-8DDDAEB8F0D4}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{7DCAE10D-5EA0-44EC-87CF-BD011A9FB3A1}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="firstRowStripe" dxfId="4"/>
@@ -384,16 +384,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A5BCBF96-39E5-4110-9B9F-C2A8D470FDA2}" name="ItemResourceTable" displayName="ItemResourceTable" ref="B2:F9" totalsRowShown="0" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{71BA8B41-540B-4050-B803-50463592A2D6}" name="ItemResourceTable" displayName="ItemResourceTable" ref="B2:F9" totalsRowShown="0" headerRowDxfId="2">
   <autoFilter ref="B2:F9" xr:uid="{00000000-0009-0000-0100-000010000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{7279D158-E012-4704-A4B1-16A920FB5A1C}" name="Index"/>
-    <tableColumn id="2" xr3:uid="{DE38B8D4-D79E-4837-A34A-B58C057757DA}" name="#대상 아이템" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{96AC52B7-DBF5-45A6-B3B1-C785DD6D1B68}" name="Index"/>
+    <tableColumn id="2" xr3:uid="{FE3F633A-2AF2-4262-969D-A4CD55B15B1D}" name="#대상 아이템" dataDxfId="1">
       <calculatedColumnFormula>INDEX([1]!ItemEffectTable['#Name],MATCH(ItemResourceTable[[#This Row],[Index]],[1]!ItemEffectTable[ApplyValue],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{626E4E77-2BB8-44D9-A4C0-F1EB552E9FDB}" name="#리소스 유형" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{BEE42738-0D63-4001-8906-08A875B01997}" name="ResourceType"/>
-    <tableColumn id="4" xr3:uid="{4678651A-6D21-4E6F-8FC4-12C9338C7BF6}" name="ResourcePath"/>
+    <tableColumn id="5" xr3:uid="{2865EC61-315F-4125-9079-F5919D43C5BB}" name="#리소스 유형" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{9C494FFC-774C-4E34-9A9E-AA97F52A6B4E}" name="ResourceType"/>
+    <tableColumn id="4" xr3:uid="{3185BD9C-6212-4901-A231-29C488AFCEF9}" name="ResourcePath"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -695,7 +695,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6457372-1EA5-4102-AFA0-87E67C9A9720}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ACE50D6-72E2-4E9D-B170-696E0260478D}">
   <sheetPr codeName="Sheet11">
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>

--- a/_GameData/ItemResourceGameData.xlsx
+++ b/_GameData/ItemResourceGameData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8CFA3112-3612-4444-B6B7-FDD72B6E985B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A47594CC-14CE-4F7F-8F8F-C975DEB882E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{316FCDB0-7C59-43E5-A713-AC87D0939ABC}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{07ED010C-2921-4061-8AD9-4950B8E7F1A7}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemResourceGameData" sheetId="1" r:id="rId1"/>
@@ -319,7 +319,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{7DCAE10D-5EA0-44EC-87CF-BD011A9FB3A1}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{854EE354-6C20-4E0D-9045-607B6DC2AF1E}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="firstRowStripe" dxfId="4"/>
@@ -384,16 +384,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{71BA8B41-540B-4050-B803-50463592A2D6}" name="ItemResourceTable" displayName="ItemResourceTable" ref="B2:F9" totalsRowShown="0" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8AEDB696-A435-481C-BDA1-ABD91C81E38F}" name="ItemResourceTable" displayName="ItemResourceTable" ref="B2:F9" totalsRowShown="0" headerRowDxfId="2">
   <autoFilter ref="B2:F9" xr:uid="{00000000-0009-0000-0100-000010000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{96AC52B7-DBF5-45A6-B3B1-C785DD6D1B68}" name="Index"/>
-    <tableColumn id="2" xr3:uid="{FE3F633A-2AF2-4262-969D-A4CD55B15B1D}" name="#대상 아이템" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{8D24B634-16FA-44DF-A743-4F0DB9570571}" name="Index"/>
+    <tableColumn id="2" xr3:uid="{4BEFED6C-D4A7-4D3F-8DE5-9F3B500ECB25}" name="#대상 아이템" dataDxfId="1">
       <calculatedColumnFormula>INDEX([1]!ItemEffectTable['#Name],MATCH(ItemResourceTable[[#This Row],[Index]],[1]!ItemEffectTable[ApplyValue],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{2865EC61-315F-4125-9079-F5919D43C5BB}" name="#리소스 유형" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{9C494FFC-774C-4E34-9A9E-AA97F52A6B4E}" name="ResourceType"/>
-    <tableColumn id="4" xr3:uid="{3185BD9C-6212-4901-A231-29C488AFCEF9}" name="ResourcePath"/>
+    <tableColumn id="5" xr3:uid="{C0211482-3727-4DCC-876D-34FD3155A442}" name="#리소스 유형" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{92581140-517F-4FCB-8AC6-F5FC54AFE46C}" name="ResourceType"/>
+    <tableColumn id="4" xr3:uid="{5022D4DE-9F05-4FB7-B9C9-7E916EF95286}" name="ResourcePath"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -695,7 +695,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ACE50D6-72E2-4E9D-B170-696E0260478D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26879CBF-24A5-4A84-821F-E224EC3B06F2}">
   <sheetPr codeName="Sheet11">
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>

--- a/_GameData/ItemResourceGameData.xlsx
+++ b/_GameData/ItemResourceGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A47594CC-14CE-4F7F-8F8F-C975DEB882E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE62833F-8CA1-4C3B-80BA-AADB66C76D76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{07ED010C-2921-4061-8AD9-4950B8E7F1A7}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2A89D114-C3D0-4C19-8271-051D05935D77}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemResourceGameData" sheetId="1" r:id="rId1"/>
@@ -319,7 +319,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{854EE354-6C20-4E0D-9045-607B6DC2AF1E}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{7C2590CA-1F86-4AB0-87AA-BFFA4D52CE46}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="firstRowStripe" dxfId="4"/>
@@ -384,16 +384,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8AEDB696-A435-481C-BDA1-ABD91C81E38F}" name="ItemResourceTable" displayName="ItemResourceTable" ref="B2:F9" totalsRowShown="0" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3C3239AF-0EEA-4582-8118-536C200C1D7A}" name="ItemResourceTable" displayName="ItemResourceTable" ref="B2:F9" totalsRowShown="0" headerRowDxfId="2">
   <autoFilter ref="B2:F9" xr:uid="{00000000-0009-0000-0100-000010000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{8D24B634-16FA-44DF-A743-4F0DB9570571}" name="Index"/>
-    <tableColumn id="2" xr3:uid="{4BEFED6C-D4A7-4D3F-8DE5-9F3B500ECB25}" name="#대상 아이템" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{5DBCBA4C-322B-47E5-A2C3-0D2EB4ED5765}" name="Index"/>
+    <tableColumn id="2" xr3:uid="{E98E66D3-5666-4C76-BD73-987338E80EC7}" name="#대상 아이템" dataDxfId="1">
       <calculatedColumnFormula>INDEX([1]!ItemEffectTable['#Name],MATCH(ItemResourceTable[[#This Row],[Index]],[1]!ItemEffectTable[ApplyValue],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{C0211482-3727-4DCC-876D-34FD3155A442}" name="#리소스 유형" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{92581140-517F-4FCB-8AC6-F5FC54AFE46C}" name="ResourceType"/>
-    <tableColumn id="4" xr3:uid="{5022D4DE-9F05-4FB7-B9C9-7E916EF95286}" name="ResourcePath"/>
+    <tableColumn id="5" xr3:uid="{5068C1E9-2D74-4783-9AF9-34FC7C475D12}" name="#리소스 유형" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{0D1C0203-5972-4EAB-9109-285CB2CDE5A9}" name="ResourceType"/>
+    <tableColumn id="4" xr3:uid="{FEA74335-F42A-4AF6-9CF8-93FEC1DE10C2}" name="ResourcePath"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -695,7 +695,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26879CBF-24A5-4A84-821F-E224EC3B06F2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F115A468-2BB7-4B86-8400-D63B5C3CB1EC}">
   <sheetPr codeName="Sheet11">
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>

--- a/_GameData/ItemResourceGameData.xlsx
+++ b/_GameData/ItemResourceGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE62833F-8CA1-4C3B-80BA-AADB66C76D76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE790469-11E7-43A9-8EDE-84316958FB48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2A89D114-C3D0-4C19-8271-051D05935D77}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D52BB74C-0CCF-4867-B98B-DF51AA65C3A3}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemResourceGameData" sheetId="1" r:id="rId1"/>
@@ -319,7 +319,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{7C2590CA-1F86-4AB0-87AA-BFFA4D52CE46}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{90EF1CDE-743C-4E7E-BAA3-2AAE1DD309DF}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="firstRowStripe" dxfId="4"/>
@@ -384,16 +384,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3C3239AF-0EEA-4582-8118-536C200C1D7A}" name="ItemResourceTable" displayName="ItemResourceTable" ref="B2:F9" totalsRowShown="0" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{44EFBC93-B59A-4DB3-B43A-8906EE9C156F}" name="ItemResourceTable" displayName="ItemResourceTable" ref="B2:F9" totalsRowShown="0" headerRowDxfId="2">
   <autoFilter ref="B2:F9" xr:uid="{00000000-0009-0000-0100-000010000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{5DBCBA4C-322B-47E5-A2C3-0D2EB4ED5765}" name="Index"/>
-    <tableColumn id="2" xr3:uid="{E98E66D3-5666-4C76-BD73-987338E80EC7}" name="#대상 아이템" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{591669FF-3963-42CF-8DD9-3D2613408381}" name="Index"/>
+    <tableColumn id="2" xr3:uid="{29F4EA44-D8ED-4395-894A-A800D82DD42E}" name="#대상 아이템" dataDxfId="1">
       <calculatedColumnFormula>INDEX([1]!ItemEffectTable['#Name],MATCH(ItemResourceTable[[#This Row],[Index]],[1]!ItemEffectTable[ApplyValue],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{5068C1E9-2D74-4783-9AF9-34FC7C475D12}" name="#리소스 유형" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{0D1C0203-5972-4EAB-9109-285CB2CDE5A9}" name="ResourceType"/>
-    <tableColumn id="4" xr3:uid="{FEA74335-F42A-4AF6-9CF8-93FEC1DE10C2}" name="ResourcePath"/>
+    <tableColumn id="5" xr3:uid="{8A3DBF91-5329-4ABA-A30A-8B49D43F2CA0}" name="#리소스 유형" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{C36473B7-9C77-4F81-A1B2-649EDD20419D}" name="ResourceType"/>
+    <tableColumn id="4" xr3:uid="{3CC754F5-C731-4604-9B46-682CAA3B6F8F}" name="ResourcePath"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -695,7 +695,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F115A468-2BB7-4B86-8400-D63B5C3CB1EC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CED91CF-A0CC-45EB-BBD9-84A7CEEADECE}">
   <sheetPr codeName="Sheet11">
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
